--- a/Теория вероятности/Биноминальное распределение 19-ИВТ-3 Игнаков К.М. .xlsx
+++ b/Теория вероятности/Биноминальное распределение 19-ИВТ-3 Игнаков К.М. .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/ВУЗ/Теория вероятности/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/ВУЗ/Программирование/institute/Теория вероятности/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83115E2E-86EE-AC48-9C02-264BDF67DBE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972DB1C5-393C-F440-9852-A7BD4FF6B9F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{0AE83952-585D-664D-B4A6-DE8001990B79}"/>
   </bookViews>
@@ -16,21 +16,16 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$B$2:$B$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$B$2:$B$20</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Лист1!$A$2:$A$47</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Лист1!$B$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Лист1!$B$2:$B$47</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$B$2:$B$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$B$2:$B$20</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$A$2:$A$47</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$B$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Лист1!$B$2:$B$47</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Лист1!$A$2:$A$47</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Лист1!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Лист1!$B$2:$B$47</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$A$6:$A$51</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$C$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$A$6:$A$51</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$B$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$B$6:$B$51</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$A$6:$A$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Лист1!$B$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Лист1!$B$6:$B$51</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,14 +41,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Биноминально распределение
-по формуле Бернули</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Количество удачных
  исходов</t>
+  </si>
+  <si>
+    <t>Функция распределения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p = </t>
+  </si>
+  <si>
+    <t>Плотность распределения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mx = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dx = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ср. квадр. Откл. = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мода = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Медиана = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эксцесс = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ассиметрия = </t>
   </si>
 </sst>
 </file>
@@ -175,38 +199,38 @@
           <c:h val="0.4935844998541849"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
+              <c:f>Лист1!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Биноминально распределение
-по формуле Бернули</c:v>
+                  <c:v>Функция распределения</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$47</c:f>
+              <c:f>Лист1!$A$6:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -353,7 +377,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$47</c:f>
+              <c:f>Лист1!$B$6:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -361,143 +385,144 @@
                   <c:v>3.6035681160411756E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2224297285003169E-4</c:v>
+                  <c:v>3.7430831907835142E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5904190538560187E-3</c:v>
+                  <c:v>6.3771640048900513E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4974491544207441E-2</c:v>
+                  <c:v>4.3149560151881469E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.942473105243703E-2</c:v>
+                  <c:v>0.15735613811117305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11439808833824891</c:v>
+                  <c:v>0.36627116553230582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12229539768705371</c:v>
+                  <c:v>0.61288632484086336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0109847126529127E-2</c:v>
+                  <c:v>0.81264032161785404</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7784172136888084E-2</c:v>
+                  <c:v>0.92864558874402237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8834991085199763E-2</c:v>
+                  <c:v>0.97856129219953081</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.6574518563442516E-3</c:v>
+                  <c:v>0.9948839295705435</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3206089050799385E-3</c:v>
+                  <c:v>0.99902242637341943</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4337000919821882E-4</c:v>
+                  <c:v>0.99984921380994929</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5864038612722348E-5</c:v>
+                  <c:v>0.99998108312115608</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2707693842779934E-6</c:v>
+                  <c:v>0.99999805669178587</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1453059714478963E-7</c:v>
+                  <c:v>0.99999983556646699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3029072725527673E-8</c:v>
+                  <c:v>0.99999998848203053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1729742152082486E-9</c:v>
+                  <c:v>0.99999999932930672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.185995233796371E-10</c:v>
+                  <c:v>0.99999999996742184</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3903312163671651E-12</c:v>
+                  <c:v>0.99999999999867639</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0460327103478382E-13</c:v>
+                  <c:v>0.99999999999995492</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.4997059474017667E-15</c:v>
+                  <c:v>0.99999999999999867</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7304532538351227E-16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8637415761413201E-18</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.2349961997848899E-20</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1354122341500315E-21</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.4912582093473896E-23</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6357492811112006E-25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4941175467937896E-27</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1321995375473703E-29</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.0840168032533009E-32</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.6385262305713708E-34</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5232633099647416E-36</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.1532266658667525E-39</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.394064304637818E-41</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.9773223070323814E-44</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.941591054464348E-47</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.2500263475216266E-50</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.8757922703058132E-53</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.9755817936865099E-56</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.8539829905285433E-59</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.609156830319468E-63</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0059500831429707E-66</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.2178260442322957E-71</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.225938091554131E-75</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.798463828896101E-80</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-833E-B54E-BFE9-91F5AE6FD00E}"/>
@@ -512,11 +537,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="1249716416"/>
         <c:axId val="1280232336"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1249716416"/>
         <c:scaling>
@@ -632,8 +656,65 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -647,7 +728,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -662,7 +743,319 @@
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Плотность распределения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$6:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>3.6035681160411756E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2224297285003169E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5904190538560187E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4974491544207441E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.942473105243703E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11439808833824891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12229539768705371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0109847126529127E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7784172136888084E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8834991085199763E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6574518563442516E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3206089050799385E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4337000919821882E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5864038612722348E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2707693842779934E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1453059714478963E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3029072725527673E-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1729742152082486E-9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.185995233796371E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3903312163671651E-12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0460327103478382E-13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4997059474017667E-15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7304532538351227E-16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8637415761413201E-18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2349961997848899E-20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1354122341500315E-21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4912582093473896E-23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6357492811112006E-25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4941175467937896E-27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1321995375473703E-29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.0840168032533009E-32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6385262305713708E-34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5232633099647416E-36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.1532266658667525E-39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.394064304637818E-41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9773223070323814E-44</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.941591054464348E-47</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.2500263475216266E-50</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8757922703058132E-53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9755817936865099E-56</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8539829905285433E-59</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.609156830319468E-63</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0059500831429707E-66</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.2178260442322957E-71</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.225938091554131E-75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.798463828896101E-80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F74-324B-953C-44971019476A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="895697456"/>
+        <c:axId val="923399120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="895697456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923399120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="923399120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="895697456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -747,6 +1140,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1250,20 +1683,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>787712</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>506130</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>412021</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>74103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>404374</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171723</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>24003</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>185506</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1283,6 +2219,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C347568-708E-734D-9441-E99E3425AC1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1588,452 +2560,699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAACD685-633C-584B-8C88-C8994CA330B9}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>_xlfn.BINOM.DIST(A2,90,0.13,)</f>
+      <c r="B6">
+        <f>_xlfn.BINOM.DIST(A6,$B$1,$B$2,TRUE)</f>
         <v>3.6035681160411756E-6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="C6">
+        <f>_xlfn.BINOM.DIST(A6,$B$1,$B$2,FALSE)</f>
+        <v>3.6035681160411756E-6</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B50" si="0">_xlfn.BINOM.DIST(A3,90,0.13,)</f>
+      <c r="B7">
+        <f t="shared" ref="B7:B28" si="0">_xlfn.BINOM.DIST(A7,$B$1,$B$2,TRUE)</f>
+        <v>3.7430831907835142E-4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C51" si="1">_xlfn.BINOM.DIST(A7,$B$1,$B$2,FALSE)</f>
         <v>3.2224297285003169E-4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>4</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>4.5904190538560187E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>2.4974491544207441E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>6.942473105243703E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.11439808833824891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>12</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.12229539768705371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.3771640048900513E-3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>4.5904190538560187E-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>10.179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>9.0109847126529127E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.3149560151881469E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>2.4974491544207441E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>3.1904499999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>4.7784172136888084E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.15735613811117305</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>6.942473105243703E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1.8834991085199763E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.36627116553230582</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.11439808833824891</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>5.6574518563442516E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.61288632484086336</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.12229539768705371</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>3.15748E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1.3206089050799385E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.81264032161785404</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>9.0109847126529127E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>0.23194200000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>2.4337000919821882E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.92864558874402237</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>4.7784172136888084E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>3.5864038612722348E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.97856129219953081</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>1.8834991085199763E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>4.2707693842779934E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.9948839295705435</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>5.6574518563442516E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>4.1453059714478963E-7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.99902242637341943</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1.3206089050799385E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>3.3029072725527673E-8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.99984921380994929</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>2.4337000919821882E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>2.1729742152082486E-9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <f>_xlfn.BINOM.DIST(A19,$B$1,$B$2,TRUE)</f>
+        <v>0.99998108312115608</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>3.5864038612722348E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1.185995233796371E-10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.99999805669178587</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>4.2707693842779934E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>5.3903312163671651E-12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.99999983556646699</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>4.1453059714478963E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>2.0460327103478382E-13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.99999998848203053</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>3.3029072725527673E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>6.4997059474017667E-15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.99999999932930672</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>2.1729742152082486E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>1.7304532538351227E-16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.99999999996742184</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1.185995233796371E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>3.8637415761413201E-18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.99999999999867639</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>5.3903312163671651E-12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>7.2349961997848899E-20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.99999999999995492</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>2.0460327103478382E-13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>1.1354122341500315E-21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.99999999999999867</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>6.4997059474017667E-15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>1.7304532538351227E-16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B7:B51" si="2">_xlfn.BINOM.DIST(A29,90,0.13,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>3.8637415761413201E-18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f>_xlfn.BINOM.DIST(A30,$B$1,$B$2,FALSE)</f>
+        <v>7.2349961997848899E-20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1.1354122341500315E-21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>52</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
         <v>1.4912582093473896E-23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>54</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
         <v>1.6357492811112006E-25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>56</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
         <v>1.4941175467937896E-27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>58</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
         <v>1.1321995375473703E-29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>60</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
         <v>7.0840168032533009E-32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>62</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
         <v>3.6385262305713708E-34</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>64</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
         <v>1.5232633099647416E-36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>66</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
         <v>5.1532266658667525E-39</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>68</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
         <v>1.394064304637818E-41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>70</v>
       </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
         <v>2.9773223070323814E-44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>72</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
         <v>4.941591054464348E-47</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>74</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
         <v>6.2500263475216266E-50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>76</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
         <v>5.8757922703058132E-53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>78</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
         <v>3.9755817936865099E-56</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>80</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
         <v>1.8539829905285433E-59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>82</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
         <v>5.609156830319468E-63</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>84</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
         <v>1.0059500831429707E-66</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>86</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
         <v>9.2178260442322957E-71</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>88</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
         <v>3.225938091554131E-75</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>90</v>
       </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
         <v>1.798463828896101E-80</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
